--- a/Code/Results/Cases/Case_5_156/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_156/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.830344684381657</v>
+        <v>1.248583466539117</v>
       </c>
       <c r="C2">
-        <v>1.735674810291471</v>
+        <v>0.5135445598622255</v>
       </c>
       <c r="D2">
-        <v>0.0377709043536143</v>
+        <v>0.02697253705651548</v>
       </c>
       <c r="E2">
-        <v>1.490596152403953</v>
+        <v>0.4183939171993387</v>
       </c>
       <c r="F2">
-        <v>2.638946266305766</v>
+        <v>1.40831938304018</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.227746585242073</v>
+        <v>0.8201472520215134</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.290864317304397</v>
+        <v>1.109004199223932</v>
       </c>
       <c r="C3">
-        <v>1.486446147959043</v>
+        <v>0.4494248925602164</v>
       </c>
       <c r="D3">
-        <v>0.03473756204498812</v>
+        <v>0.02650423200020668</v>
       </c>
       <c r="E3">
-        <v>1.265432022405562</v>
+        <v>0.3645020341276677</v>
       </c>
       <c r="F3">
-        <v>2.297758040415161</v>
+        <v>1.3348920828372</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.089896952267651</v>
+        <v>0.793131367362335</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.966128585842284</v>
+        <v>1.023753385397583</v>
       </c>
       <c r="C4">
-        <v>1.337123485181962</v>
+        <v>0.4101930759799188</v>
       </c>
       <c r="D4">
-        <v>0.03311810716898833</v>
+        <v>0.0262425623976732</v>
       </c>
       <c r="E4">
-        <v>1.13220829742113</v>
+        <v>0.3315723959174477</v>
       </c>
       <c r="F4">
-        <v>2.097034792614409</v>
+        <v>1.290923878185708</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.009767199303852</v>
+        <v>0.7771895207634003</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.835141837716662</v>
+        <v>0.9891235662772715</v>
       </c>
       <c r="C5">
-        <v>1.277040680578978</v>
+        <v>0.3942382203240413</v>
       </c>
       <c r="D5">
-        <v>0.03251073148072692</v>
+        <v>0.02614226112430273</v>
       </c>
       <c r="E5">
-        <v>1.078959463538041</v>
+        <v>0.3181899391099563</v>
       </c>
       <c r="F5">
-        <v>2.017132747988356</v>
+        <v>1.273281674887869</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.9780970352116327</v>
+        <v>0.7708526310546588</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.813465065147852</v>
+        <v>0.9833799061866557</v>
       </c>
       <c r="C6">
-        <v>1.267105927816488</v>
+        <v>0.3915908223520432</v>
       </c>
       <c r="D6">
-        <v>0.03241282469299733</v>
+        <v>0.02612598349378459</v>
       </c>
       <c r="E6">
-        <v>1.070174481158233</v>
+        <v>0.3159698997834681</v>
       </c>
       <c r="F6">
-        <v>2.003971139113716</v>
+        <v>1.270368660628677</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.9728935639845844</v>
+        <v>0.7698099468155704</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.964356961297028</v>
+        <v>1.023285911619382</v>
       </c>
       <c r="C7">
-        <v>1.336310281782914</v>
+        <v>0.4099777748626821</v>
       </c>
       <c r="D7">
-        <v>0.03310971347723779</v>
+        <v>0.02624118429420008</v>
       </c>
       <c r="E7">
-        <v>1.131486222133901</v>
+        <v>0.3313917718563317</v>
       </c>
       <c r="F7">
-        <v>2.095949917841494</v>
+        <v>1.290684842283625</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.0093362885343</v>
+        <v>0.7771034170905438</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.642793834933968</v>
+        <v>1.200361005336902</v>
       </c>
       <c r="C8">
-        <v>1.648865808425285</v>
+        <v>0.4914060859751999</v>
       </c>
       <c r="D8">
-        <v>0.03666901972493974</v>
+        <v>0.0268055902312696</v>
       </c>
       <c r="E8">
-        <v>1.411770582084785</v>
+        <v>0.3997765224959551</v>
       </c>
       <c r="F8">
-        <v>2.519285006902919</v>
+        <v>1.382766553573703</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.179182805063107</v>
+        <v>0.8106963311955866</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.040383173937528</v>
+        <v>1.551340953639112</v>
       </c>
       <c r="C9">
-        <v>2.299998144014239</v>
+        <v>0.65229212190917</v>
       </c>
       <c r="D9">
-        <v>0.04604197080041672</v>
+        <v>0.02812564034314846</v>
       </c>
       <c r="E9">
-        <v>2.013554167686536</v>
+        <v>0.5353223072584257</v>
       </c>
       <c r="F9">
-        <v>3.435539985157561</v>
+        <v>1.572458603900571</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.556066102051048</v>
+        <v>0.8818331445848173</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.134723897660649</v>
+        <v>1.811729519971095</v>
       </c>
       <c r="C10">
-        <v>2.816847809736885</v>
+        <v>0.7713974297906248</v>
       </c>
       <c r="D10">
-        <v>0.05520182449783562</v>
+        <v>0.02923668437058069</v>
       </c>
       <c r="E10">
-        <v>2.509165620931697</v>
+        <v>0.6360383629342294</v>
       </c>
       <c r="F10">
-        <v>4.189381778562506</v>
+        <v>1.717764074275038</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.873353844465001</v>
+        <v>0.9374986201205786</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.655070189299011</v>
+        <v>1.930791820376669</v>
       </c>
       <c r="C11">
-        <v>3.064844105288046</v>
+        <v>0.8258153070449907</v>
       </c>
       <c r="D11">
-        <v>0.06011199684782298</v>
+        <v>0.02977525142903659</v>
       </c>
       <c r="E11">
-        <v>2.752974153250634</v>
+        <v>0.6821581709987896</v>
       </c>
       <c r="F11">
-        <v>4.558146871179588</v>
+        <v>1.785240746264435</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>2.030500168985</v>
+        <v>0.9636035652325461</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.856211459186738</v>
+        <v>1.975969605603495</v>
       </c>
       <c r="C12">
-        <v>3.16110619738248</v>
+        <v>0.8464588475313803</v>
       </c>
       <c r="D12">
-        <v>0.0621066002021422</v>
+        <v>0.02998416302251883</v>
       </c>
       <c r="E12">
-        <v>2.848711132823922</v>
+        <v>0.6996706982716745</v>
       </c>
       <c r="F12">
-        <v>4.70241759461814</v>
+        <v>1.810997008541079</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>2.092293360104605</v>
+        <v>0.9736047686078706</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.812693763659354</v>
+        <v>1.966235631998245</v>
       </c>
       <c r="C13">
-        <v>3.140260455846942</v>
+        <v>0.8420112170801985</v>
       </c>
       <c r="D13">
-        <v>0.0616704717935761</v>
+        <v>0.02993894597989311</v>
       </c>
       <c r="E13">
-        <v>2.827925857080061</v>
+        <v>0.6958968596913166</v>
       </c>
       <c r="F13">
-        <v>4.671123410480931</v>
+        <v>1.805440747184122</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>2.078875140108437</v>
+        <v>0.9714456257839004</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.671530371164408</v>
+        <v>1.934506768806273</v>
       </c>
       <c r="C14">
-        <v>3.072713184747784</v>
+        <v>0.8275129128982712</v>
       </c>
       <c r="D14">
-        <v>0.06027319223011318</v>
+        <v>0.02979233798153302</v>
       </c>
       <c r="E14">
-        <v>2.76077684745249</v>
+        <v>0.6835979510093608</v>
       </c>
       <c r="F14">
-        <v>4.569917299956529</v>
+        <v>1.787355597873272</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>2.035535180350436</v>
+        <v>0.9644240297522373</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.585626559101001</v>
+        <v>1.915083949766824</v>
       </c>
       <c r="C15">
-        <v>3.031661810958042</v>
+        <v>0.8186371398834922</v>
       </c>
       <c r="D15">
-        <v>0.05943590832747248</v>
+        <v>0.02970318935458494</v>
       </c>
       <c r="E15">
-        <v>2.720117363316277</v>
+        <v>0.6760708892048086</v>
       </c>
       <c r="F15">
-        <v>4.508559323568591</v>
+        <v>1.776304720054412</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>2.009300917029549</v>
+        <v>0.9601382827241025</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.101239883710946</v>
+        <v>1.803961113385128</v>
       </c>
       <c r="C16">
-        <v>2.800939633626399</v>
+        <v>0.7678460767689899</v>
       </c>
       <c r="D16">
-        <v>0.05489813717227321</v>
+        <v>0.02920217189517871</v>
       </c>
       <c r="E16">
-        <v>2.493662526455978</v>
+        <v>0.633030799230653</v>
       </c>
       <c r="F16">
-        <v>4.16587489291345</v>
+        <v>1.713382555926671</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.863377140603617</v>
+        <v>0.9358086273887807</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.810400236485634</v>
+        <v>1.735949755135266</v>
       </c>
       <c r="C17">
-        <v>2.663014552727304</v>
+        <v>0.7367498156958163</v>
       </c>
       <c r="D17">
-        <v>0.05232256176737593</v>
+        <v>0.02890344601022576</v>
       </c>
       <c r="E17">
-        <v>2.359923708516135</v>
+        <v>0.6067078802236949</v>
       </c>
       <c r="F17">
-        <v>3.962847607411334</v>
+        <v>1.675138899022784</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.777420850364521</v>
+        <v>0.921085915907824</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.64517518024121</v>
+        <v>1.696888627717556</v>
       </c>
       <c r="C18">
-        <v>2.584859705548922</v>
+        <v>0.7188861426147923</v>
       </c>
       <c r="D18">
-        <v>0.05090904374613103</v>
+        <v>0.02873473454552311</v>
       </c>
       <c r="E18">
-        <v>2.284671043557111</v>
+        <v>0.591595943341261</v>
       </c>
       <c r="F18">
-        <v>3.848437912177928</v>
+        <v>1.653271332854302</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.729154855148622</v>
+        <v>0.9126912477417193</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.589563503421687</v>
+        <v>1.683672915268005</v>
       </c>
       <c r="C19">
-        <v>2.558586583385193</v>
+        <v>0.7128415201045186</v>
       </c>
       <c r="D19">
-        <v>0.0504413688429608</v>
+        <v>0.02867813942287967</v>
       </c>
       <c r="E19">
-        <v>2.259458592101595</v>
+        <v>0.5864840339517627</v>
       </c>
       <c r="F19">
-        <v>3.810082928830496</v>
+        <v>1.645889343899967</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.713002645104382</v>
+        <v>0.9098614716022126</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.84114204964186</v>
+        <v>1.743183733073693</v>
       </c>
       <c r="C20">
-        <v>2.677571985367138</v>
+        <v>0.7400577619174555</v>
       </c>
       <c r="D20">
-        <v>0.05258952966983088</v>
+        <v>0.02893492280009013</v>
       </c>
       <c r="E20">
-        <v>2.373982658503067</v>
+        <v>0.6095070390605883</v>
       </c>
       <c r="F20">
-        <v>3.984209422164696</v>
+        <v>1.679196586759787</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.786446699069757</v>
+        <v>0.9226455484459137</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.712874327217833</v>
+        <v>1.943823792032958</v>
       </c>
       <c r="C21">
-        <v>3.092484997247539</v>
+        <v>0.8317703991930898</v>
       </c>
       <c r="D21">
-        <v>0.06067967029463972</v>
+        <v>0.02983526385366986</v>
       </c>
       <c r="E21">
-        <v>2.780400213021167</v>
+        <v>0.6872091022820541</v>
       </c>
       <c r="F21">
-        <v>4.599509952761565</v>
+        <v>1.792662048340901</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>2.048199047773537</v>
+        <v>0.9664832725464976</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.3070604101448</v>
+        <v>2.075488690337409</v>
       </c>
       <c r="C22">
-        <v>3.377697984444183</v>
+        <v>0.8919249609699023</v>
       </c>
       <c r="D22">
-        <v>0.06677498884434385</v>
+        <v>0.03045274161284794</v>
       </c>
       <c r="E22">
-        <v>3.066452346189934</v>
+        <v>0.738273492567771</v>
       </c>
       <c r="F22">
-        <v>5.029228456396908</v>
+        <v>1.868012203187078</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>2.232887389769729</v>
+        <v>0.9958104620327504</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.987348133882904</v>
+        <v>2.005166434535226</v>
       </c>
       <c r="C23">
-        <v>3.223987023061113</v>
+        <v>0.859798752631491</v>
       </c>
       <c r="D23">
-        <v>0.06343620130352434</v>
+        <v>0.03012045635393434</v>
       </c>
       <c r="E23">
-        <v>2.91158971071421</v>
+        <v>0.7109922513340479</v>
       </c>
       <c r="F23">
-        <v>4.796987929030593</v>
+        <v>1.827685029803433</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>2.132890917865723</v>
+        <v>0.9800949631544853</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.827237562449966</v>
+        <v>1.739913128867101</v>
       </c>
       <c r="C24">
-        <v>2.670987054670604</v>
+        <v>0.7385621960838762</v>
       </c>
       <c r="D24">
-        <v>0.05246862614557557</v>
+        <v>0.02892068272055326</v>
       </c>
       <c r="E24">
-        <v>2.367621567799461</v>
+        <v>0.6082414728318923</v>
       </c>
       <c r="F24">
-        <v>3.974544605516343</v>
+        <v>1.677361735266004</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.782362558287261</v>
+        <v>0.9219402219909512</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.652672717718474</v>
+        <v>1.455966638430652</v>
       </c>
       <c r="C25">
-        <v>2.118375326892021</v>
+        <v>0.6086220630136268</v>
       </c>
       <c r="D25">
-        <v>0.0431767107967147</v>
+        <v>0.02774455462341763</v>
       </c>
       <c r="E25">
-        <v>1.843227968609767</v>
+        <v>0.4984734630056238</v>
       </c>
       <c r="F25">
-        <v>3.175869799742827</v>
+        <v>1.520126681014943</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.448165329253982</v>
+        <v>0.8620056120074793</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_156/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_156/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.248583466539117</v>
+        <v>3.830344684381714</v>
       </c>
       <c r="C2">
-        <v>0.5135445598622255</v>
+        <v>1.735674810291528</v>
       </c>
       <c r="D2">
-        <v>0.02697253705651548</v>
+        <v>0.03777090435384167</v>
       </c>
       <c r="E2">
-        <v>0.4183939171993387</v>
+        <v>1.490596152403953</v>
       </c>
       <c r="F2">
-        <v>1.40831938304018</v>
+        <v>2.638946266305766</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0.8201472520215134</v>
+        <v>1.227746585242087</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.109004199223932</v>
+        <v>3.290864317304283</v>
       </c>
       <c r="C3">
-        <v>0.4494248925602164</v>
+        <v>1.486446147958816</v>
       </c>
       <c r="D3">
-        <v>0.02650423200020668</v>
+        <v>0.03473756204488154</v>
       </c>
       <c r="E3">
-        <v>0.3645020341276677</v>
+        <v>1.265432022405619</v>
       </c>
       <c r="F3">
-        <v>1.3348920828372</v>
+        <v>2.297758040415147</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.793131367362335</v>
+        <v>1.089896952267665</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.023753385397583</v>
+        <v>2.966128585842398</v>
       </c>
       <c r="C4">
-        <v>0.4101930759799188</v>
+        <v>1.337123485181905</v>
       </c>
       <c r="D4">
-        <v>0.0262425623976732</v>
+        <v>0.03311810716908781</v>
       </c>
       <c r="E4">
-        <v>0.3315723959174477</v>
+        <v>1.132208297421059</v>
       </c>
       <c r="F4">
-        <v>1.290923878185708</v>
+        <v>2.097034792614394</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.7771895207634003</v>
+        <v>1.009767199303838</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9891235662772715</v>
+        <v>2.835141837716606</v>
       </c>
       <c r="C5">
-        <v>0.3942382203240413</v>
+        <v>1.277040680578864</v>
       </c>
       <c r="D5">
-        <v>0.02614226112430273</v>
+        <v>0.03251073148072692</v>
       </c>
       <c r="E5">
-        <v>0.3181899391099563</v>
+        <v>1.078959463538013</v>
       </c>
       <c r="F5">
-        <v>1.273281674887869</v>
+        <v>2.017132747988356</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.7708526310546588</v>
+        <v>0.9780970352116327</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9833799061866557</v>
+        <v>2.813465065147852</v>
       </c>
       <c r="C6">
-        <v>0.3915908223520432</v>
+        <v>1.267105927816374</v>
       </c>
       <c r="D6">
-        <v>0.02612598349378459</v>
+        <v>0.03241282469296891</v>
       </c>
       <c r="E6">
-        <v>0.3159698997834681</v>
+        <v>1.070174481158247</v>
       </c>
       <c r="F6">
-        <v>1.270368660628677</v>
+        <v>2.00397113911373</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.7698099468155704</v>
+        <v>0.9728935639845702</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.023285911619382</v>
+        <v>2.964356961297256</v>
       </c>
       <c r="C7">
-        <v>0.4099777748626821</v>
+        <v>1.336310281783085</v>
       </c>
       <c r="D7">
-        <v>0.02624118429420008</v>
+        <v>0.03310971347723068</v>
       </c>
       <c r="E7">
-        <v>0.3313917718563317</v>
+        <v>1.131486222133901</v>
       </c>
       <c r="F7">
-        <v>1.290684842283625</v>
+        <v>2.095949917841494</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.7771034170905438</v>
+        <v>1.009336288534286</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.200361005336902</v>
+        <v>3.642793834934196</v>
       </c>
       <c r="C8">
-        <v>0.4914060859751999</v>
+        <v>1.648865808425228</v>
       </c>
       <c r="D8">
-        <v>0.0268055902312696</v>
+        <v>0.0366690197250108</v>
       </c>
       <c r="E8">
-        <v>0.3997765224959551</v>
+        <v>1.411770582084785</v>
       </c>
       <c r="F8">
-        <v>1.382766553573703</v>
+        <v>2.519285006902919</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.8106963311955866</v>
+        <v>1.179182805063135</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.551340953639112</v>
+        <v>5.040383173937244</v>
       </c>
       <c r="C9">
-        <v>0.65229212190917</v>
+        <v>2.299998144013784</v>
       </c>
       <c r="D9">
-        <v>0.02812564034314846</v>
+        <v>0.04604197080029593</v>
       </c>
       <c r="E9">
-        <v>0.5353223072584257</v>
+        <v>2.013554167686465</v>
       </c>
       <c r="F9">
-        <v>1.572458603900571</v>
+        <v>3.435539985157618</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.8818331445848173</v>
+        <v>1.556066102051048</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.811729519971095</v>
+        <v>6.134723897660706</v>
       </c>
       <c r="C10">
-        <v>0.7713974297906248</v>
+        <v>2.816847809736544</v>
       </c>
       <c r="D10">
-        <v>0.02923668437058069</v>
+        <v>0.05520182449757272</v>
       </c>
       <c r="E10">
-        <v>0.6360383629342294</v>
+        <v>2.509165620931668</v>
       </c>
       <c r="F10">
-        <v>1.717764074275038</v>
+        <v>4.189381778562591</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.9374986201205786</v>
+        <v>1.873353844465043</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.930791820376669</v>
+        <v>6.655070189299011</v>
       </c>
       <c r="C11">
-        <v>0.8258153070449907</v>
+        <v>3.064844105288046</v>
       </c>
       <c r="D11">
-        <v>0.02977525142903659</v>
+        <v>0.06011199684783008</v>
       </c>
       <c r="E11">
-        <v>0.6821581709987896</v>
+        <v>2.752974153250591</v>
       </c>
       <c r="F11">
-        <v>1.785240746264435</v>
+        <v>4.558146871179531</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.9636035652325461</v>
+        <v>2.030500168984958</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.975969605603495</v>
+        <v>6.856211459186966</v>
       </c>
       <c r="C12">
-        <v>0.8464588475313803</v>
+        <v>3.161106197382423</v>
       </c>
       <c r="D12">
-        <v>0.02998416302251883</v>
+        <v>0.06210660020208536</v>
       </c>
       <c r="E12">
-        <v>0.6996706982716745</v>
+        <v>2.848711132823908</v>
       </c>
       <c r="F12">
-        <v>1.810997008541079</v>
+        <v>4.702417594618254</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
-        <v>0.9736047686078706</v>
+        <v>2.092293360104676</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.966235631998245</v>
+        <v>6.812693763659411</v>
       </c>
       <c r="C13">
-        <v>0.8420112170801985</v>
+        <v>3.140260455846658</v>
       </c>
       <c r="D13">
-        <v>0.02993894597989311</v>
+        <v>0.06167047179351215</v>
       </c>
       <c r="E13">
-        <v>0.6958968596913166</v>
+        <v>2.827925857080132</v>
       </c>
       <c r="F13">
-        <v>1.805440747184122</v>
+        <v>4.671123410480874</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.9714456257839004</v>
+        <v>2.078875140108423</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.934506768806273</v>
+        <v>6.671530371164408</v>
       </c>
       <c r="C14">
-        <v>0.8275129128982712</v>
+        <v>3.072713184747499</v>
       </c>
       <c r="D14">
-        <v>0.02979233798153302</v>
+        <v>0.06027319223012029</v>
       </c>
       <c r="E14">
-        <v>0.6835979510093608</v>
+        <v>2.760776847452505</v>
       </c>
       <c r="F14">
-        <v>1.787355597873272</v>
+        <v>4.569917299956444</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.9644240297522373</v>
+        <v>2.035535180350465</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.915083949766824</v>
+        <v>6.585626559100888</v>
       </c>
       <c r="C15">
-        <v>0.8186371398834922</v>
+        <v>3.031661810958497</v>
       </c>
       <c r="D15">
-        <v>0.02970318935458494</v>
+        <v>0.0594359083273801</v>
       </c>
       <c r="E15">
-        <v>0.6760708892048086</v>
+        <v>2.720117363316334</v>
       </c>
       <c r="F15">
-        <v>1.776304720054412</v>
+        <v>4.508559323568619</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.9601382827241025</v>
+        <v>2.009300917029563</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.803961113385128</v>
+        <v>6.101239883710775</v>
       </c>
       <c r="C16">
-        <v>0.7678460767689899</v>
+        <v>2.800939633626115</v>
       </c>
       <c r="D16">
-        <v>0.02920217189517871</v>
+        <v>0.05489813717248637</v>
       </c>
       <c r="E16">
-        <v>0.633030799230653</v>
+        <v>2.493662526455836</v>
       </c>
       <c r="F16">
-        <v>1.713382555926671</v>
+        <v>4.165874892913422</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.9358086273887807</v>
+        <v>1.863377140603617</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.735949755135266</v>
+        <v>5.810400236485691</v>
       </c>
       <c r="C17">
-        <v>0.7367498156958163</v>
+        <v>2.663014552727077</v>
       </c>
       <c r="D17">
-        <v>0.02890344601022576</v>
+        <v>0.05232256176736172</v>
       </c>
       <c r="E17">
-        <v>0.6067078802236949</v>
+        <v>2.359923708516035</v>
       </c>
       <c r="F17">
-        <v>1.675138899022784</v>
+        <v>3.962847607411334</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.921085915907824</v>
+        <v>1.777420850364535</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.696888627717556</v>
+        <v>5.64517518024104</v>
       </c>
       <c r="C18">
-        <v>0.7188861426147923</v>
+        <v>2.584859705549206</v>
       </c>
       <c r="D18">
-        <v>0.02873473454552311</v>
+        <v>0.05090904374625893</v>
       </c>
       <c r="E18">
-        <v>0.591595943341261</v>
+        <v>2.284671043557125</v>
       </c>
       <c r="F18">
-        <v>1.653271332854302</v>
+        <v>3.848437912177928</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.9126912477417193</v>
+        <v>1.729154855148622</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.683672915268005</v>
+        <v>5.58956350342163</v>
       </c>
       <c r="C19">
-        <v>0.7128415201045186</v>
+        <v>2.558586583385193</v>
       </c>
       <c r="D19">
-        <v>0.02867813942287967</v>
+        <v>0.05044136884285422</v>
       </c>
       <c r="E19">
-        <v>0.5864840339517627</v>
+        <v>2.259458592101694</v>
       </c>
       <c r="F19">
-        <v>1.645889343899967</v>
+        <v>3.810082928830582</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.9098614716022126</v>
+        <v>1.71300264510441</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.743183733073693</v>
+        <v>5.84114204964186</v>
       </c>
       <c r="C20">
-        <v>0.7400577619174555</v>
+        <v>2.677571985366569</v>
       </c>
       <c r="D20">
-        <v>0.02893492280009013</v>
+        <v>0.05258952967043484</v>
       </c>
       <c r="E20">
-        <v>0.6095070390605883</v>
+        <v>2.373982658503095</v>
       </c>
       <c r="F20">
-        <v>1.679196586759787</v>
+        <v>3.984209422164639</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.9226455484459137</v>
+        <v>1.786446699069742</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.943823792032958</v>
+        <v>6.712874327217946</v>
       </c>
       <c r="C21">
-        <v>0.8317703991930898</v>
+        <v>3.092484997247539</v>
       </c>
       <c r="D21">
-        <v>0.02983526385366986</v>
+        <v>0.06067967029503052</v>
       </c>
       <c r="E21">
-        <v>0.6872091022820541</v>
+        <v>2.780400213021082</v>
       </c>
       <c r="F21">
-        <v>1.792662048340901</v>
+        <v>4.599509952761537</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.9664832725464976</v>
+        <v>2.048199047773522</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.075488690337409</v>
+        <v>7.307060410144572</v>
       </c>
       <c r="C22">
-        <v>0.8919249609699023</v>
+        <v>3.37769798444458</v>
       </c>
       <c r="D22">
-        <v>0.03045274161284794</v>
+        <v>0.06677498884413069</v>
       </c>
       <c r="E22">
-        <v>0.738273492567771</v>
+        <v>3.066452346189919</v>
       </c>
       <c r="F22">
-        <v>1.868012203187078</v>
+        <v>5.029228456396879</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.9958104620327504</v>
+        <v>2.232887389769743</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.005166434535226</v>
+        <v>6.987348133882847</v>
       </c>
       <c r="C23">
-        <v>0.859798752631491</v>
+        <v>3.223987023060602</v>
       </c>
       <c r="D23">
-        <v>0.03012045635393434</v>
+        <v>0.06343620130353855</v>
       </c>
       <c r="E23">
-        <v>0.7109922513340479</v>
+        <v>2.911589710714225</v>
       </c>
       <c r="F23">
-        <v>1.827685029803433</v>
+        <v>4.796987929030593</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.9800949631544853</v>
+        <v>2.132890917865709</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.739913128867101</v>
+        <v>5.827237562449739</v>
       </c>
       <c r="C24">
-        <v>0.7385621960838762</v>
+        <v>2.670987054670888</v>
       </c>
       <c r="D24">
-        <v>0.02892068272055326</v>
+        <v>0.05246862614568215</v>
       </c>
       <c r="E24">
-        <v>0.6082414728318923</v>
+        <v>2.367621567799532</v>
       </c>
       <c r="F24">
-        <v>1.677361735266004</v>
+        <v>3.974544605516286</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.9219402219909512</v>
+        <v>1.782362558287218</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.455966638430652</v>
+        <v>4.652672717718474</v>
       </c>
       <c r="C25">
-        <v>0.6086220630136268</v>
+        <v>2.118375326892135</v>
       </c>
       <c r="D25">
-        <v>0.02774455462341763</v>
+        <v>0.04317671079680707</v>
       </c>
       <c r="E25">
-        <v>0.4984734630056238</v>
+        <v>1.84322796860981</v>
       </c>
       <c r="F25">
-        <v>1.520126681014943</v>
+        <v>3.175869799742856</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.8620056120074793</v>
+        <v>1.448165329254024</v>
       </c>
       <c r="J25">
         <v>0</v>
